--- a/testData/login_data.xlsx
+++ b/testData/login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProject\custFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31412F9A-CF29-43A7-8432-E5A06A2C234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2515B8E-C79F-4A94-8C38-7EB576A3DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>adm</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
